--- a/public/excel/PLANTILLA_RPA.xlsx
+++ b/public/excel/PLANTILLA_RPA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpiza\Source\tatc\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpiza\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A5A106-B699-4E6D-B5DA-CAEAEFC598B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB767942-61B8-40BF-8426-62DABC492857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="30960" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,88 +25,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>type</t>
+    <t>OS</t>
   </si>
   <si>
-    <t>entryCountryDate</t>
+    <t>BOOKING</t>
   </si>
   <si>
-    <t>entryDepositDate</t>
+    <t>CONTENEDOR</t>
   </si>
   <si>
-    <t>container</t>
+    <t>TAMAÑO</t>
   </si>
   <si>
-    <t>custom</t>
-  </si>
-  <si>
-    <t>eir</t>
-  </si>
-  <si>
-    <t>originTatc</t>
-  </si>
-  <si>
-    <t>destinyTatc</t>
-  </si>
-  <si>
-    <t>cntType</t>
-  </si>
-  <si>
-    <t>containerSize</t>
-  </si>
-  <si>
-    <t>inDocument</t>
-  </si>
-  <si>
-    <t>inPort</t>
-  </si>
-  <si>
-    <t>issuerTatc</t>
-  </si>
-  <si>
-    <t>inTatc</t>
-  </si>
-  <si>
-    <t>transferDate</t>
-  </si>
-  <si>
-    <t>tara</t>
-  </si>
-  <si>
-    <t>manufacturingYear</t>
-  </si>
-  <si>
-    <t>containerStatus</t>
-  </si>
-  <si>
-    <t>bultoType</t>
-  </si>
-  <si>
-    <t>deposit</t>
-  </si>
-  <si>
-    <t>fob</t>
-  </si>
-  <si>
-    <t>cif</t>
+    <t>DESTINO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -161,13 +102,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
@@ -449,111 +388,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="F4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="K5" s="2"/>
-    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/public/excel/PLANTILLA_RPA.xlsx
+++ b/public/excel/PLANTILLA_RPA.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpiza\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB767942-61B8-40BF-8426-62DABC492857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8F2663-D166-4735-81B7-D06E700F4A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="30960" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="21012" windowHeight="16656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="pc" sheetId="1" r:id="rId1"/>
+    <sheet name="sti" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>OS</t>
   </si>
@@ -36,17 +37,32 @@
     <t>CONTENEDOR</t>
   </si>
   <si>
-    <t>TAMAÑO</t>
-  </si>
-  <si>
-    <t>DESTINO</t>
+    <t>RUT</t>
+  </si>
+  <si>
+    <t>PESO</t>
+  </si>
+  <si>
+    <t>TRANSPORTISTA</t>
+  </si>
+  <si>
+    <t>NAVIERA</t>
+  </si>
+  <si>
+    <t>RAZON_SOCIAL</t>
+  </si>
+  <si>
+    <t>OPERACION</t>
+  </si>
+  <si>
+    <t>PESO_VGM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +74,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,17 +123,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{F521C03D-F7BC-4F86-8912-C3D984A4AFC7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -388,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,9 +426,10 @@
     <col min="3" max="3" width="16.77734375" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,10 +445,70 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D768F0-54AD-49CF-926A-FEC0267FD88F}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/excel/PLANTILLA_RPA.xlsx
+++ b/public/excel/PLANTILLA_RPA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpiza\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8F2663-D166-4735-81B7-D06E700F4A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4472D265-AA55-47B8-ACD9-0D7451B1F530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="21012" windowHeight="16656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1488" yWindow="4500" windowWidth="30960" windowHeight="12060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pc" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>OS</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>RAZON_SOCIAL</t>
-  </si>
-  <si>
-    <t>OPERACION</t>
   </si>
   <si>
     <t>PESO_VGM</t>
@@ -62,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +81,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -128,9 +131,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
@@ -416,7 +422,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,56 +464,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D768F0-54AD-49CF-926A-FEC0267FD88F}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
     <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="6" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
     <col min="7" max="7" width="23.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/excel/PLANTILLA_RPA.xlsx
+++ b/public/excel/PLANTILLA_RPA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpiza\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4472D265-AA55-47B8-ACD9-0D7451B1F530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BA63C5-7CA5-4DC0-A1DA-7992A8945F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1488" yWindow="4500" windowWidth="30960" windowHeight="12060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10080" yWindow="3360" windowWidth="30960" windowHeight="12060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pc" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>OS</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>PESO_VGM</t>
+  </si>
+  <si>
+    <t>OPERACION</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D768F0-54AD-49CF-926A-FEC0267FD88F}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,13 +479,13 @@
     <col min="3" max="3" width="22.109375" customWidth="1"/>
     <col min="4" max="4" width="28.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
     <col min="7" max="7" width="23.5546875" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
     <col min="9" max="9" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -502,13 +505,16 @@
         <v>8</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -517,16 +523,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="I2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/excel/PLANTILLA_RPA.xlsx
+++ b/public/excel/PLANTILLA_RPA.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpiza\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BA63C5-7CA5-4DC0-A1DA-7992A8945F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045F623B-BEA1-4556-8B4A-4A73F5B92A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="3360" windowWidth="30960" windowHeight="12060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pc" sheetId="1" r:id="rId1"/>
     <sheet name="sti" sheetId="2" r:id="rId2"/>
+    <sheet name="silogport_tps" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>OS</t>
   </si>
@@ -56,6 +57,27 @@
   </si>
   <si>
     <t>OPERACION</t>
+  </si>
+  <si>
+    <t>NAVE</t>
+  </si>
+  <si>
+    <t>TIPO_DE_BULTO</t>
+  </si>
+  <si>
+    <t>CONSIGNATARIO</t>
+  </si>
+  <si>
+    <t>ISO_CODE</t>
+  </si>
+  <si>
+    <t>NUM_DE_CARTA_DE_PORTE</t>
+  </si>
+  <si>
+    <t>PESO_VGM_VERIFIER</t>
+  </si>
+  <si>
+    <t>PESO_SOLO_CARGA</t>
   </si>
 </sst>
 </file>
@@ -134,12 +156,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
@@ -469,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D768F0-54AD-49CF-926A-FEC0267FD88F}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,31 +506,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -523,9 +543,74 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06D3847-511C-4D6B-8C0A-5C4248A1E02E}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/excel/PLANTILLA_RPA.xlsx
+++ b/public/excel/PLANTILLA_RPA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpiza\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpiza\Source\rpa-valcomex\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045F623B-BEA1-4556-8B4A-4A73F5B92A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D116F55A-6449-4A27-8A64-94EA9263AAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="40020" windowHeight="12072" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pc" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>OS</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>CONSIGNATARIO</t>
-  </si>
-  <si>
-    <t>ISO_CODE</t>
   </si>
   <si>
     <t>NUM_DE_CARTA_DE_PORTE</t>
@@ -156,10 +153,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
@@ -554,7 +552,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +569,7 @@
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,20 +592,15 @@
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
